--- a/data/processed/Q3.xlsx
+++ b/data/processed/Q3.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5680" yWindow="4080" windowWidth="5920" windowHeight="4480" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Balance Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Income Statement" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Management Info" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Currency" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="MR 74" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="MR 17&amp;28" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Balance Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Income Statement" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Management Info" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Currency" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MR 74" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MR 17&amp;28" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="COMP09" localSheetId="1">'Balance Sheet'!$A$1:$A$51</definedName>
@@ -56,7 +56,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Arial"/>
       <charset val="177"/>
@@ -81,6 +81,9 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -335,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -493,6 +496,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
@@ -902,7 +906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
@@ -924,7 +928,7 @@
     <row r="1" ht="14.5" customHeight="1" thickBot="1">
       <c r="A1" s="45" t="inlineStr">
         <is>
-          <t>Parameters</t>
+          <t>PARAMETERS</t>
         </is>
       </c>
       <c r="B1" s="48" t="inlineStr">
@@ -1549,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -1616,24 +1620,38 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="inlineStr">
-        <is>
-          <t>STANDARD SALES</t>
-        </is>
-      </c>
-      <c r="B2" s="20" t="n"/>
-      <c r="C2" s="20" t="n"/>
-      <c r="D2" s="19" t="n"/>
-      <c r="E2" s="20" t="n"/>
-      <c r="F2" s="19" t="n"/>
-      <c r="G2" s="20" t="n"/>
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>STANDARD SALES CONSUMER</t>
+        </is>
+      </c>
+      <c r="B2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="H2" s="19" t="n"/>
-      <c r="I2" s="21" t="n"/>
+      <c r="I2" s="21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
         <is>
-          <t>CONSUMER</t>
+          <t>STANDARD SALES INTRA-COMPANY</t>
         </is>
       </c>
       <c r="B3" s="20" t="n">
@@ -1662,7 +1680,7 @@
     <row r="4">
       <c r="A4" s="8" t="inlineStr">
         <is>
-          <t>INTRA-COMPANY</t>
+          <t>STANDARD SALES INTER-COMPANY</t>
         </is>
       </c>
       <c r="B4" s="20" t="n">
@@ -1691,50 +1709,50 @@
     <row r="5">
       <c r="A5" s="8" t="inlineStr">
         <is>
-          <t>INTER-COMPANY</t>
+          <t>STANDARD SALES COMPONENT</t>
         </is>
       </c>
       <c r="B5" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="20" t="n">
-        <v>0</v>
-      </c>
+        <v>666600</v>
+      </c>
+      <c r="C5" s="20" t="n"/>
       <c r="D5" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="E5" s="20" t="n"/>
       <c r="F5" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="G5" s="20" t="n"/>
       <c r="H5" s="19" t="n"/>
       <c r="I5" s="21" t="n">
-        <v>0</v>
+        <v>666600</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="inlineStr">
         <is>
-          <t>COMPONENT</t>
+          <t>STANDARD SALES LESS COST OF GOODS</t>
         </is>
       </c>
       <c r="B6" s="20" t="n">
         <v>666600</v>
       </c>
-      <c r="C6" s="20" t="n"/>
+      <c r="C6" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="D6" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="20" t="n"/>
+      <c r="E6" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="20" t="n"/>
+      <c r="G6" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="H6" s="19" t="n"/>
       <c r="I6" s="21" t="n">
         <v>666600</v>
@@ -1743,11 +1761,11 @@
     <row r="7">
       <c r="A7" s="8" t="inlineStr">
         <is>
-          <t>LESS COST OF GOODS</t>
+          <t>STANDARD SALES GROSS MARGIN</t>
         </is>
       </c>
       <c r="B7" s="20" t="n">
-        <v>666600</v>
+        <v>0</v>
       </c>
       <c r="C7" s="20" t="n">
         <v>0</v>
@@ -1766,13 +1784,13 @@
       </c>
       <c r="H7" s="19" t="n"/>
       <c r="I7" s="21" t="n">
-        <v>666600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="inlineStr">
         <is>
-          <t>GROSS MARGIN</t>
+          <t>DELUXE SALES CONSUMER</t>
         </is>
       </c>
       <c r="B8" s="20" t="n">
@@ -1799,24 +1817,38 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="9" t="inlineStr">
-        <is>
-          <t>DELUXE SALES</t>
-        </is>
-      </c>
-      <c r="B9" s="20" t="n"/>
-      <c r="C9" s="20" t="n"/>
-      <c r="D9" s="19" t="n"/>
-      <c r="E9" s="20" t="n"/>
-      <c r="F9" s="19" t="n"/>
-      <c r="G9" s="20" t="n"/>
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>DELUXE SALES INTRA-COMPANY</t>
+        </is>
+      </c>
+      <c r="B9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="H9" s="19" t="n"/>
-      <c r="I9" s="21" t="n"/>
+      <c r="I9" s="21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
-          <t>CONSUMER</t>
+          <t>DELUXE SALES INTER-COMPANY</t>
         </is>
       </c>
       <c r="B10" s="20" t="n">
@@ -1845,40 +1877,34 @@
     <row r="11">
       <c r="A11" s="8" t="inlineStr">
         <is>
-          <t>INTRA-COMPANY</t>
+          <t>DELUXE SALES COMPONENT</t>
         </is>
       </c>
       <c r="B11" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="20" t="n">
-        <v>0</v>
-      </c>
+        <v>808000</v>
+      </c>
+      <c r="C11" s="20" t="n"/>
       <c r="D11" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="E11" s="20" t="n"/>
       <c r="F11" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="G11" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="G11" s="20" t="n"/>
       <c r="H11" s="19" t="n"/>
       <c r="I11" s="21" t="n">
-        <v>0</v>
+        <v>808000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
-          <t>INTER-COMPANY</t>
+          <t>DELUXE SALES LESS COST OF GOODS</t>
         </is>
       </c>
       <c r="B12" s="20" t="n">
-        <v>0</v>
+        <v>808000</v>
       </c>
       <c r="C12" s="20" t="n">
         <v>0</v>
@@ -1897,40 +1923,46 @@
       </c>
       <c r="H12" s="19" t="n"/>
       <c r="I12" s="21" t="n">
-        <v>0</v>
+        <v>808000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="inlineStr">
         <is>
-          <t>COMPONENT</t>
+          <t>DELUXE SALES GROSS MARGIN</t>
         </is>
       </c>
       <c r="B13" s="20" t="n">
-        <v>808000</v>
-      </c>
-      <c r="C13" s="20" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="D13" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="20" t="n"/>
+      <c r="E13" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="F13" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="G13" s="20" t="n"/>
+      <c r="G13" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="H13" s="19" t="n"/>
       <c r="I13" s="21" t="n">
-        <v>808000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
         <is>
-          <t>LESS COST OF GOODS</t>
+          <t>DELUXE SALES TOTAL GROSS MARGIN</t>
         </is>
       </c>
       <c r="B14" s="20" t="n">
-        <v>808000</v>
+        <v>0</v>
       </c>
       <c r="C14" s="20" t="n">
         <v>0</v>
@@ -1949,20 +1981,20 @@
       </c>
       <c r="H14" s="19" t="n"/>
       <c r="I14" s="21" t="n">
-        <v>808000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="inlineStr">
         <is>
-          <t>GROSS MARGIN</t>
+          <t>0OPERATING EXPENSE COMMERCIAL AND ADMIN.</t>
         </is>
       </c>
       <c r="B15" s="20" t="n">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="C15" s="20" t="n">
-        <v>0</v>
+        <v>25600</v>
       </c>
       <c r="D15" s="19" t="n">
         <v>0</v>
@@ -1978,13 +2010,13 @@
       </c>
       <c r="H15" s="19" t="n"/>
       <c r="I15" s="21" t="n">
-        <v>0</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
         <is>
-          <t>TOTAL GROSS MARGIN</t>
+          <t>0OPERATING EXPENSE ADVERTISING</t>
         </is>
       </c>
       <c r="B16" s="20" t="n">
@@ -2011,31 +2043,45 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="inlineStr">
-        <is>
-          <t>0OPERATING EXPENSE</t>
-        </is>
-      </c>
-      <c r="B17" s="20" t="n"/>
-      <c r="C17" s="20" t="n"/>
-      <c r="D17" s="19" t="n"/>
-      <c r="E17" s="20" t="n"/>
-      <c r="F17" s="19" t="n"/>
-      <c r="G17" s="20" t="n"/>
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>0OPERATING EXPENSE TRANSFER</t>
+        </is>
+      </c>
+      <c r="B17" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="H17" s="19" t="n"/>
-      <c r="I17" s="21" t="n"/>
+      <c r="I17" s="21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="inlineStr">
         <is>
-          <t>COMMERCIAL AND ADMIN.</t>
+          <t>0OPERATING EXPENSE INVENTORY</t>
         </is>
       </c>
       <c r="B18" s="20" t="n">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="C18" s="20" t="n">
-        <v>25600</v>
+        <v>0</v>
       </c>
       <c r="D18" s="19" t="n">
         <v>0</v>
@@ -2051,13 +2097,13 @@
       </c>
       <c r="H18" s="19" t="n"/>
       <c r="I18" s="21" t="n">
-        <v>32000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="inlineStr">
         <is>
-          <t>ADVERTISING</t>
+          <t>0OPERATING EXPENSE SALES EXPEDITING</t>
         </is>
       </c>
       <c r="B19" s="20" t="n">
@@ -2086,7 +2132,7 @@
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>TRANSFER</t>
+          <t>0OPERATING EXPENSE METHODS IMPROVEMENT</t>
         </is>
       </c>
       <c r="B20" s="20" t="n">
@@ -2115,14 +2161,14 @@
     <row r="21">
       <c r="A21" s="8" t="inlineStr">
         <is>
-          <t>INVENTORY</t>
+          <t>0OPERATING EXPENSE DEPRECIATION AND FIXED</t>
         </is>
       </c>
       <c r="B21" s="20" t="n">
         <v>0</v>
       </c>
       <c r="C21" s="20" t="n">
-        <v>0</v>
+        <v>405000</v>
       </c>
       <c r="D21" s="19" t="n">
         <v>0</v>
@@ -2138,20 +2184,20 @@
       </c>
       <c r="H21" s="19" t="n"/>
       <c r="I21" s="21" t="n">
-        <v>0</v>
+        <v>405000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
         <is>
-          <t>SALES EXPEDITING</t>
+          <t>0OPERATING EXPENSE NET OPERATING EXPENSE</t>
         </is>
       </c>
       <c r="B22" s="20" t="n">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="C22" s="20" t="n">
-        <v>0</v>
+        <v>430600</v>
       </c>
       <c r="D22" s="19" t="n">
         <v>0</v>
@@ -2167,20 +2213,20 @@
       </c>
       <c r="H22" s="19" t="n"/>
       <c r="I22" s="21" t="n">
-        <v>0</v>
+        <v>437000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="inlineStr">
         <is>
-          <t>METHODS IMPROVEMENT</t>
+          <t>0OPERATING EXPENSE NET EARNINGS FROM OPER.</t>
         </is>
       </c>
       <c r="B23" s="20" t="n">
-        <v>0</v>
+        <v>-6400</v>
       </c>
       <c r="C23" s="20" t="n">
-        <v>0</v>
+        <v>-430600</v>
       </c>
       <c r="D23" s="19" t="n">
         <v>0</v>
@@ -2196,105 +2242,79 @@
       </c>
       <c r="H23" s="19" t="n"/>
       <c r="I23" s="21" t="n">
-        <v>0</v>
+        <v>-437000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="inlineStr">
         <is>
-          <t>DEPRECIATION AND FIXED</t>
-        </is>
-      </c>
-      <c r="B24" s="20" t="n">
-        <v>0</v>
-      </c>
+          <t>0OPERATING EXPENSE TOTAL NET OPER. EARNINGS</t>
+        </is>
+      </c>
+      <c r="B24" s="20" t="n"/>
       <c r="C24" s="20" t="n">
-        <v>405000</v>
-      </c>
-      <c r="D24" s="19" t="n">
-        <v>0</v>
-      </c>
+        <v>-437000</v>
+      </c>
+      <c r="D24" s="19" t="n"/>
       <c r="E24" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="19" t="n">
-        <v>0</v>
-      </c>
+      <c r="F24" s="19" t="n"/>
       <c r="G24" s="20" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="19" t="n"/>
       <c r="I24" s="21" t="n">
-        <v>405000</v>
+        <v>-437000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="inlineStr">
         <is>
-          <t>NET OPERATING EXPENSE</t>
-        </is>
-      </c>
-      <c r="B25" s="20" t="n">
-        <v>6400</v>
-      </c>
-      <c r="C25" s="20" t="n">
-        <v>430600</v>
-      </c>
-      <c r="D25" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="19" t="n"/>
+          <t>0NON-OPERATING INCOME LICENSES  CHIP</t>
+        </is>
+      </c>
+      <c r="B25" s="20" t="n"/>
+      <c r="C25" s="20" t="n"/>
+      <c r="D25" s="19" t="n"/>
+      <c r="E25" s="20" t="n"/>
+      <c r="F25" s="19" t="n"/>
+      <c r="G25" s="20" t="n"/>
+      <c r="H25" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="I25" s="21" t="n">
-        <v>437000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="inlineStr">
         <is>
-          <t>NET EARNINGS FROM OPER.</t>
-        </is>
-      </c>
-      <c r="B26" s="20" t="n">
-        <v>-6400</v>
-      </c>
-      <c r="C26" s="20" t="n">
-        <v>-430600</v>
-      </c>
-      <c r="D26" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="19" t="n"/>
+          <t>0NON-OPERATING INCOME LICENSES  PC</t>
+        </is>
+      </c>
+      <c r="B26" s="20" t="n"/>
+      <c r="C26" s="20" t="n"/>
+      <c r="D26" s="19" t="n"/>
+      <c r="E26" s="20" t="n"/>
+      <c r="F26" s="19" t="n"/>
+      <c r="G26" s="20" t="n"/>
+      <c r="H26" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="I26" s="21" t="n">
-        <v>-437000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="inlineStr">
         <is>
-          <t>TOTAL NET OPER. EARNINGS</t>
+          <t>0NON-OPERATING INCOME INTEREST INCOME</t>
         </is>
       </c>
       <c r="B27" s="20" t="n"/>
       <c r="C27" s="20" t="n">
-        <v>-437000</v>
+        <v>0</v>
       </c>
       <c r="D27" s="19" t="n"/>
       <c r="E27" s="20" t="n">
@@ -2304,49 +2324,67 @@
       <c r="G27" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="H27" s="19" t="n"/>
+      <c r="H27" s="19" t="n">
+        <v>58000</v>
+      </c>
       <c r="I27" s="21" t="n">
-        <v>-437000</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9" t="inlineStr">
-        <is>
-          <t>0NON-OPERATING INCOME</t>
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>0NON-OPERATING INCOME MISCELLANEOUS INCOME</t>
         </is>
       </c>
       <c r="B28" s="20" t="n"/>
-      <c r="C28" s="20" t="n"/>
+      <c r="C28" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="D28" s="19" t="n"/>
-      <c r="E28" s="20" t="n"/>
+      <c r="E28" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="F28" s="19" t="n"/>
-      <c r="G28" s="20" t="n"/>
-      <c r="H28" s="19" t="n"/>
-      <c r="I28" s="21" t="n"/>
+      <c r="G28" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="inlineStr">
         <is>
-          <t>LICENSES  CHIP</t>
+          <t>0NON-OPERATING INCOME TOTAL NON-OPER. INCOME</t>
         </is>
       </c>
       <c r="B29" s="20" t="n"/>
-      <c r="C29" s="20" t="n"/>
+      <c r="C29" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="D29" s="19" t="n"/>
-      <c r="E29" s="20" t="n"/>
+      <c r="E29" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="F29" s="19" t="n"/>
-      <c r="G29" s="20" t="n"/>
+      <c r="G29" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="H29" s="19" t="n">
-        <v>0</v>
+        <v>58000</v>
       </c>
       <c r="I29" s="21" t="n">
-        <v>0</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="inlineStr">
         <is>
-          <t>LICENSES  PC</t>
+          <t>0NON-OPERATING EXPENSE LICENSES  CHIP</t>
         </is>
       </c>
       <c r="B30" s="20" t="n"/>
@@ -2365,82 +2403,64 @@
     <row r="31">
       <c r="A31" s="8" t="inlineStr">
         <is>
-          <t>INTEREST INCOME</t>
+          <t>0NON-OPERATING EXPENSE LICENSES  PC</t>
         </is>
       </c>
       <c r="B31" s="20" t="n"/>
-      <c r="C31" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="C31" s="20" t="n"/>
       <c r="D31" s="19" t="n"/>
-      <c r="E31" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="E31" s="20" t="n"/>
       <c r="F31" s="19" t="n"/>
-      <c r="G31" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="G31" s="20" t="n"/>
       <c r="H31" s="19" t="n">
-        <v>58000</v>
+        <v>0</v>
       </c>
       <c r="I31" s="21" t="n">
-        <v>58000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="inlineStr">
         <is>
-          <t>MISCELLANEOUS INCOME</t>
+          <t>0NON-OPERATING EXPENSE MARKET RESEARCH</t>
         </is>
       </c>
       <c r="B32" s="20" t="n"/>
-      <c r="C32" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="C32" s="20" t="n"/>
       <c r="D32" s="19" t="n"/>
-      <c r="E32" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="E32" s="20" t="n"/>
       <c r="F32" s="19" t="n"/>
-      <c r="G32" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="G32" s="20" t="n"/>
       <c r="H32" s="19" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I32" s="21" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8" t="inlineStr">
         <is>
-          <t>TOTAL NON-OPER. INCOME</t>
+          <t>0NON-OPERATING EXPENSE R &amp; D NEW CHIP</t>
         </is>
       </c>
       <c r="B33" s="20" t="n"/>
-      <c r="C33" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="C33" s="20" t="n"/>
       <c r="D33" s="19" t="n"/>
-      <c r="E33" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="E33" s="20" t="n"/>
       <c r="F33" s="19" t="n"/>
-      <c r="G33" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="G33" s="20" t="n"/>
       <c r="H33" s="19" t="n">
-        <v>58000</v>
+        <v>0</v>
       </c>
       <c r="I33" s="21" t="n">
-        <v>58000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="9" t="inlineStr">
-        <is>
-          <t>0NON-OPERATING EXPENSE</t>
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>0NON-OPERATING EXPENSE R &amp; D NEW PC</t>
         </is>
       </c>
       <c r="B34" s="20" t="n"/>
@@ -2449,97 +2469,131 @@
       <c r="E34" s="20" t="n"/>
       <c r="F34" s="19" t="n"/>
       <c r="G34" s="20" t="n"/>
-      <c r="H34" s="19" t="n"/>
-      <c r="I34" s="21" t="n"/>
+      <c r="H34" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="8" t="inlineStr">
         <is>
-          <t>LICENSES  CHIP</t>
+          <t>0NON-OPERATING EXPENSE INTEREST EXPENSE</t>
         </is>
       </c>
       <c r="B35" s="20" t="n"/>
-      <c r="C35" s="20" t="n"/>
+      <c r="C35" s="20" t="n">
+        <v>106083</v>
+      </c>
       <c r="D35" s="19" t="n"/>
-      <c r="E35" s="20" t="n"/>
+      <c r="E35" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="F35" s="19" t="n"/>
-      <c r="G35" s="20" t="n"/>
+      <c r="G35" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="H35" s="19" t="n">
-        <v>0</v>
+        <v>313673</v>
       </c>
       <c r="I35" s="21" t="n">
-        <v>0</v>
+        <v>419755</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="8" t="inlineStr">
         <is>
-          <t>LICENSES  PC</t>
+          <t>0NON-OPERATING EXPENSE MISCELLANEOUS EXPENSE</t>
         </is>
       </c>
       <c r="B36" s="20" t="n"/>
-      <c r="C36" s="20" t="n"/>
+      <c r="C36" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="D36" s="19" t="n"/>
-      <c r="E36" s="20" t="n"/>
+      <c r="E36" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="F36" s="19" t="n"/>
-      <c r="G36" s="20" t="n"/>
+      <c r="G36" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="H36" s="19" t="n">
-        <v>0</v>
+        <v>475000</v>
       </c>
       <c r="I36" s="21" t="n">
-        <v>0</v>
+        <v>475000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="8" t="inlineStr">
         <is>
-          <t>MARKET RESEARCH</t>
+          <t>0NON-OPERATING EXPENSE COST OF EXCHANGE</t>
         </is>
       </c>
       <c r="B37" s="20" t="n"/>
-      <c r="C37" s="20" t="n"/>
+      <c r="C37" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="D37" s="19" t="n"/>
-      <c r="E37" s="20" t="n"/>
+      <c r="E37" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="F37" s="19" t="n"/>
-      <c r="G37" s="20" t="n"/>
+      <c r="G37" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="H37" s="19" t="n">
-        <v>3000</v>
+        <v>20258</v>
       </c>
       <c r="I37" s="21" t="n">
-        <v>3000</v>
+        <v>20258</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="8" t="inlineStr">
         <is>
-          <t>R &amp; D NEW CHIP</t>
+          <t>0NON-OPERATING EXPENSE TOTAL NON-OPER. EXPENSE</t>
         </is>
       </c>
       <c r="B38" s="20" t="n"/>
-      <c r="C38" s="20" t="n"/>
+      <c r="C38" s="20" t="n">
+        <v>106083</v>
+      </c>
       <c r="D38" s="19" t="n"/>
-      <c r="E38" s="20" t="n"/>
+      <c r="E38" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="F38" s="19" t="n"/>
-      <c r="G38" s="20" t="n"/>
+      <c r="G38" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="H38" s="19" t="n">
-        <v>0</v>
+        <v>811931</v>
       </c>
       <c r="I38" s="21" t="n">
-        <v>0</v>
+        <v>918014</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="inlineStr">
-        <is>
-          <t>R &amp; D NEW PC</t>
+      <c r="A39" s="9" t="inlineStr">
+        <is>
+          <t>0REALIZED   GAIN (LOSS)</t>
         </is>
       </c>
       <c r="B39" s="20" t="n"/>
-      <c r="C39" s="20" t="n"/>
+      <c r="C39" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="D39" s="19" t="n"/>
-      <c r="E39" s="20" t="n"/>
+      <c r="E39" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="F39" s="19" t="n"/>
-      <c r="G39" s="20" t="n"/>
+      <c r="G39" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="H39" s="19" t="n">
         <v>0</v>
       </c>
@@ -2550,12 +2604,12 @@
     <row r="40">
       <c r="A40" s="8" t="inlineStr">
         <is>
-          <t>INTEREST EXPENSE</t>
+          <t>GROSS EARNINGS</t>
         </is>
       </c>
       <c r="B40" s="20" t="n"/>
       <c r="C40" s="20" t="n">
-        <v>106083</v>
+        <v>-543083</v>
       </c>
       <c r="D40" s="19" t="n"/>
       <c r="E40" s="20" t="n">
@@ -2566,16 +2620,16 @@
         <v>0</v>
       </c>
       <c r="H40" s="19" t="n">
-        <v>313673</v>
+        <v>-753931</v>
       </c>
       <c r="I40" s="21" t="n">
-        <v>419755</v>
+        <v>-1297014</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="8" t="inlineStr">
         <is>
-          <t>MISCELLANEOUS EXPENSE</t>
+          <t>INCOME TAX</t>
         </is>
       </c>
       <c r="B41" s="20" t="n"/>
@@ -2591,16 +2645,16 @@
         <v>0</v>
       </c>
       <c r="H41" s="19" t="n">
-        <v>475000</v>
+        <v>0</v>
       </c>
       <c r="I41" s="21" t="n">
-        <v>475000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="8" t="inlineStr">
         <is>
-          <t>COST OF EXCHANGE</t>
+          <t>CAPITAL TRANSFER TAX</t>
         </is>
       </c>
       <c r="B42" s="20" t="n"/>
@@ -2616,21 +2670,21 @@
         <v>0</v>
       </c>
       <c r="H42" s="19" t="n">
-        <v>20258</v>
+        <v>0</v>
       </c>
       <c r="I42" s="21" t="n">
-        <v>20258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="8" t="inlineStr">
         <is>
-          <t>TOTAL NON-OPER. EXPENSE</t>
+          <t>NET EARNINGS</t>
         </is>
       </c>
       <c r="B43" s="20" t="n"/>
       <c r="C43" s="20" t="n">
-        <v>106083</v>
+        <v>-543083</v>
       </c>
       <c r="D43" s="19" t="n"/>
       <c r="E43" s="20" t="n">
@@ -2641,30 +2695,24 @@
         <v>0</v>
       </c>
       <c r="H43" s="19" t="n">
-        <v>811931</v>
+        <v>-753931</v>
       </c>
       <c r="I43" s="21" t="n">
-        <v>918014</v>
+        <v>-1297014</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="9" t="inlineStr">
-        <is>
-          <t>0REALIZED   GAIN (LOSS)</t>
+      <c r="A44" s="8" t="inlineStr">
+        <is>
+          <t>DIVIDENDS</t>
         </is>
       </c>
       <c r="B44" s="20" t="n"/>
-      <c r="C44" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="C44" s="20" t="n"/>
       <c r="D44" s="19" t="n"/>
-      <c r="E44" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="E44" s="20" t="n"/>
       <c r="F44" s="19" t="n"/>
-      <c r="G44" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="G44" s="20" t="n"/>
       <c r="H44" s="19" t="n">
         <v>0</v>
       </c>
@@ -2673,146 +2721,27 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="inlineStr">
-        <is>
-          <t>GROSS EARNINGS</t>
-        </is>
-      </c>
-      <c r="B45" s="20" t="n"/>
-      <c r="C45" s="20" t="n">
+      <c r="A45" s="40" t="inlineStr">
+        <is>
+          <t>TO RETAINED EARNINGS</t>
+        </is>
+      </c>
+      <c r="B45" s="23" t="n"/>
+      <c r="C45" s="23" t="n">
         <v>-543083</v>
       </c>
-      <c r="D45" s="19" t="n"/>
-      <c r="E45" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="19" t="n"/>
-      <c r="G45" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="19" t="n">
+      <c r="D45" s="22" t="n"/>
+      <c r="E45" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="22" t="n"/>
+      <c r="G45" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="22" t="n">
         <v>-753931</v>
       </c>
-      <c r="I45" s="21" t="n">
-        <v>-1297014</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="8" t="inlineStr">
-        <is>
-          <t>INCOME TAX</t>
-        </is>
-      </c>
-      <c r="B46" s="20" t="n"/>
-      <c r="C46" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" s="19" t="n"/>
-      <c r="E46" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="19" t="n"/>
-      <c r="G46" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="8" t="inlineStr">
-        <is>
-          <t>CAPITAL TRANSFER TAX</t>
-        </is>
-      </c>
-      <c r="B47" s="20" t="n"/>
-      <c r="C47" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="19" t="n"/>
-      <c r="E47" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="19" t="n"/>
-      <c r="G47" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="8" t="inlineStr">
-        <is>
-          <t>NET EARNINGS</t>
-        </is>
-      </c>
-      <c r="B48" s="20" t="n"/>
-      <c r="C48" s="20" t="n">
-        <v>-543083</v>
-      </c>
-      <c r="D48" s="19" t="n"/>
-      <c r="E48" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="19" t="n"/>
-      <c r="G48" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="19" t="n">
-        <v>-753931</v>
-      </c>
-      <c r="I48" s="21" t="n">
-        <v>-1297014</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="8" t="inlineStr">
-        <is>
-          <t>DIVIDENDS</t>
-        </is>
-      </c>
-      <c r="B49" s="20" t="n"/>
-      <c r="C49" s="20" t="n"/>
-      <c r="D49" s="19" t="n"/>
-      <c r="E49" s="20" t="n"/>
-      <c r="F49" s="19" t="n"/>
-      <c r="G49" s="20" t="n"/>
-      <c r="H49" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="40" t="inlineStr">
-        <is>
-          <t>TO RETAINED EARNINGS</t>
-        </is>
-      </c>
-      <c r="B50" s="23" t="n"/>
-      <c r="C50" s="23" t="n">
-        <v>-543083</v>
-      </c>
-      <c r="D50" s="22" t="n"/>
-      <c r="E50" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="22" t="n"/>
-      <c r="G50" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="22" t="n">
-        <v>-753931</v>
-      </c>
-      <c r="I50" s="24" t="n">
+      <c r="I45" s="24" t="n">
         <v>-1297014</v>
       </c>
     </row>
@@ -2828,7 +2757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2900,25 +2829,37 @@
       </c>
     </row>
     <row r="2" ht="14.5" customHeight="1" thickBot="1">
-      <c r="A2" s="9" t="inlineStr">
-        <is>
-          <t>STANDARD SALES UNITS</t>
-        </is>
-      </c>
-      <c r="B2" s="54" t="n"/>
-      <c r="C2" s="54" t="n"/>
-      <c r="D2" s="54" t="n"/>
-      <c r="E2" s="55" t="n"/>
-      <c r="F2" s="54" t="n"/>
-      <c r="G2" s="54" t="n"/>
-      <c r="H2" s="55" t="n"/>
-      <c r="I2" s="54" t="n"/>
-      <c r="J2" s="57" t="n"/>
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>STANDARD SALES UNITS CONSUMER</t>
+        </is>
+      </c>
+      <c r="B2" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="33" t="n"/>
+      <c r="D2" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="33" t="n"/>
+      <c r="G2" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="33" t="n"/>
+      <c r="J2" s="37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
         <is>
-          <t>CONSUMER</t>
+          <t>STANDARD SALES UNITS INTRA-COMPANY</t>
         </is>
       </c>
       <c r="B3" s="33" t="n">
@@ -2946,7 +2887,7 @@
     <row r="4">
       <c r="A4" s="8" t="inlineStr">
         <is>
-          <t>INTRA-COMPANY</t>
+          <t>STANDARD SALES UNITS INTER-COMPANY</t>
         </is>
       </c>
       <c r="B4" s="33" t="n">
@@ -2974,73 +2915,85 @@
     <row r="5">
       <c r="A5" s="8" t="inlineStr">
         <is>
-          <t>INTER-COMPANY</t>
+          <t>STANDARD SALES UNITS COMPONENT</t>
         </is>
       </c>
       <c r="B5" s="33" t="n">
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="C5" s="33" t="n"/>
-      <c r="D5" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="D5" s="33" t="n"/>
       <c r="E5" s="34" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="33" t="n"/>
-      <c r="G5" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="G5" s="33" t="n"/>
       <c r="H5" s="34" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="33" t="n"/>
-      <c r="J5" s="37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" s="37" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="8" t="inlineStr">
         <is>
-          <t>COMPONENT</t>
+          <t>DELUXE   SALES UNITS CONSUMER</t>
         </is>
       </c>
       <c r="B6" s="33" t="n">
-        <v>33000</v>
+        <v>0</v>
       </c>
       <c r="C6" s="33" t="n"/>
-      <c r="D6" s="33" t="n"/>
+      <c r="D6" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="E6" s="34" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="33" t="n"/>
-      <c r="G6" s="33" t="n"/>
+      <c r="G6" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="H6" s="34" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="33" t="n"/>
-      <c r="J6" s="37" t="n"/>
+      <c r="J6" s="37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="inlineStr">
-        <is>
-          <t>DELUXE   SALES UNITS</t>
-        </is>
-      </c>
-      <c r="B7" s="33" t="n"/>
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>DELUXE   SALES UNITS INTRA-COMPANY</t>
+        </is>
+      </c>
+      <c r="B7" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="C7" s="33" t="n"/>
-      <c r="D7" s="33" t="n"/>
-      <c r="E7" s="34" t="n"/>
+      <c r="D7" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="33" t="n"/>
-      <c r="G7" s="33" t="n"/>
-      <c r="H7" s="34" t="n"/>
+      <c r="G7" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="I7" s="33" t="n"/>
-      <c r="J7" s="37" t="n"/>
+      <c r="J7" s="37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="inlineStr">
         <is>
-          <t>CONSUMER</t>
+          <t>DELUXE   SALES UNITS INTER-COMPANY</t>
         </is>
       </c>
       <c r="B8" s="33" t="n">
@@ -3068,55 +3021,55 @@
     <row r="9">
       <c r="A9" s="8" t="inlineStr">
         <is>
-          <t>INTRA-COMPANY</t>
+          <t>DELUXE   SALES UNITS COMPONENT</t>
         </is>
       </c>
       <c r="B9" s="33" t="n">
-        <v>0</v>
+        <v>32000</v>
       </c>
       <c r="C9" s="33" t="n"/>
-      <c r="D9" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="D9" s="33" t="n"/>
       <c r="E9" s="34" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="33" t="n"/>
-      <c r="G9" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="G9" s="33" t="n"/>
       <c r="H9" s="34" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="33" t="n"/>
-      <c r="J9" s="37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" s="37" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
-          <t>INTER-COMPANY</t>
+          <t>MANUFACTURING COST ANALYSIS PL(1) STANDARD COST</t>
         </is>
       </c>
       <c r="B10" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="33" t="n"/>
+      <c r="C10" s="33" t="n">
+        <v>421675</v>
+      </c>
       <c r="D10" s="33" t="n">
-        <v>0</v>
+        <v>1426454</v>
       </c>
       <c r="E10" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="33" t="n"/>
+      <c r="F10" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="G10" s="33" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="33" t="n"/>
+      <c r="I10" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="J10" s="37" t="n">
         <v>0</v>
       </c>
@@ -3124,71 +3077,89 @@
     <row r="11">
       <c r="A11" s="8" t="inlineStr">
         <is>
-          <t>COMPONENT</t>
+          <t>MANUFACTURING COST ANALYSIS UNITS</t>
         </is>
       </c>
       <c r="B11" s="33" t="n">
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="C11" s="33" t="n"/>
-      <c r="D11" s="33" t="n"/>
+      <c r="D11" s="33" t="n">
+        <v>20000</v>
+      </c>
       <c r="E11" s="34" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="33" t="n"/>
-      <c r="G11" s="33" t="n"/>
+      <c r="G11" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="H11" s="34" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="33" t="n"/>
-      <c r="J11" s="37" t="n"/>
+      <c r="J11" s="37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="inlineStr">
-        <is>
-          <t>MANUFACTURING COST ANALYSIS</t>
-        </is>
-      </c>
-      <c r="B12" s="33" t="n"/>
-      <c r="C12" s="33" t="n"/>
-      <c r="D12" s="33" t="n"/>
-      <c r="E12" s="34" t="n"/>
-      <c r="F12" s="33" t="n"/>
-      <c r="G12" s="33" t="n"/>
-      <c r="H12" s="34" t="n"/>
-      <c r="I12" s="33" t="n"/>
-      <c r="J12" s="37" t="n"/>
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>MANUFACTURING COST ANALYSIS DELUXE   COST</t>
+        </is>
+      </c>
+      <c r="B12" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="inlineStr">
         <is>
-          <t>PL(1) STANDARD COST</t>
+          <t>MANUFACTURING COST ANALYSIS UNITS</t>
         </is>
       </c>
       <c r="B13" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="33" t="n">
-        <v>421675</v>
-      </c>
+      <c r="C13" s="33" t="n"/>
       <c r="D13" s="33" t="n">
-        <v>1426454</v>
+        <v>0</v>
       </c>
       <c r="E13" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="F13" s="33" t="n"/>
       <c r="G13" s="33" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" s="33" t="n"/>
       <c r="J13" s="37" t="n">
         <v>0</v>
       </c>
@@ -3196,27 +3167,33 @@
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
         <is>
-          <t>UNITS</t>
+          <t>MANUFACTURING COST ANALYSIS PL(2) STANDARD COST</t>
         </is>
       </c>
       <c r="B14" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="33" t="n"/>
+      <c r="C14" s="33" t="n">
+        <v>421675</v>
+      </c>
       <c r="D14" s="33" t="n">
-        <v>20000</v>
+        <v>1426454</v>
       </c>
       <c r="E14" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="33" t="n"/>
+      <c r="F14" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="G14" s="33" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="33" t="n"/>
+      <c r="I14" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="J14" s="37" t="n">
         <v>0</v>
       </c>
@@ -3224,33 +3201,27 @@
     <row r="15">
       <c r="A15" s="8" t="inlineStr">
         <is>
-          <t>DELUXE   COST</t>
+          <t>MANUFACTURING COST ANALYSIS UNITS</t>
         </is>
       </c>
       <c r="B15" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="C15" s="33" t="n"/>
       <c r="D15" s="33" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E15" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="F15" s="33" t="n"/>
       <c r="G15" s="33" t="n">
         <v>0</v>
       </c>
       <c r="H15" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" s="33" t="n"/>
       <c r="J15" s="37" t="n">
         <v>0</v>
       </c>
@@ -3258,27 +3229,33 @@
     <row r="16">
       <c r="A16" s="8" t="inlineStr">
         <is>
-          <t>UNITS</t>
+          <t>MANUFACTURING COST ANALYSIS DELUXE   COST</t>
         </is>
       </c>
       <c r="B16" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="C16" s="33" t="n"/>
+      <c r="C16" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="D16" s="33" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="33" t="n"/>
+      <c r="F16" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="G16" s="33" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="33" t="n"/>
+      <c r="I16" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" s="37" t="n">
         <v>0</v>
       </c>
@@ -3286,33 +3263,27 @@
     <row r="17">
       <c r="A17" s="8" t="inlineStr">
         <is>
-          <t>PL(2) STANDARD COST</t>
+          <t>MANUFACTURING COST ANALYSIS UNITS</t>
         </is>
       </c>
       <c r="B17" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="33" t="n">
-        <v>421675</v>
-      </c>
+      <c r="C17" s="33" t="n"/>
       <c r="D17" s="33" t="n">
-        <v>1426454</v>
+        <v>0</v>
       </c>
       <c r="E17" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="F17" s="33" t="n"/>
       <c r="G17" s="33" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" s="33" t="n"/>
       <c r="J17" s="37" t="n">
         <v>0</v>
       </c>
@@ -3320,27 +3291,33 @@
     <row r="18">
       <c r="A18" s="8" t="inlineStr">
         <is>
-          <t>UNITS</t>
+          <t>MANUFACTURING COST ANALYSIS PL(3) STANDARD COST</t>
         </is>
       </c>
       <c r="B18" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="33" t="n"/>
+      <c r="C18" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="D18" s="33" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E18" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F18" s="33" t="n"/>
+      <c r="F18" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="G18" s="33" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="33" t="n"/>
+      <c r="I18" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="J18" s="37" t="n">
         <v>0</v>
       </c>
@@ -3348,33 +3325,27 @@
     <row r="19">
       <c r="A19" s="8" t="inlineStr">
         <is>
-          <t>DELUXE   COST</t>
+          <t>MANUFACTURING COST ANALYSIS UNITS</t>
         </is>
       </c>
       <c r="B19" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="C19" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="C19" s="33" t="n"/>
       <c r="D19" s="33" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="F19" s="33" t="n"/>
       <c r="G19" s="33" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" s="33" t="n"/>
       <c r="J19" s="37" t="n">
         <v>0</v>
       </c>
@@ -3382,27 +3353,33 @@
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>UNITS</t>
+          <t>MANUFACTURING COST ANALYSIS DELUXE   COST</t>
         </is>
       </c>
       <c r="B20" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="C20" s="33" t="n"/>
+      <c r="C20" s="33" t="n">
+        <v>631250</v>
+      </c>
       <c r="D20" s="33" t="n">
-        <v>0</v>
+        <v>2147380</v>
       </c>
       <c r="E20" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="33" t="n"/>
+      <c r="F20" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="G20" s="33" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="33" t="n"/>
+      <c r="I20" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="J20" s="37" t="n">
         <v>0</v>
       </c>
@@ -3410,33 +3387,27 @@
     <row r="21">
       <c r="A21" s="8" t="inlineStr">
         <is>
-          <t>PL(3) STANDARD COST</t>
+          <t>MANUFACTURING COST ANALYSIS UNITS</t>
         </is>
       </c>
       <c r="B21" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="C21" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="C21" s="33" t="n"/>
       <c r="D21" s="33" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="E21" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F21" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="F21" s="33" t="n"/>
       <c r="G21" s="33" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" s="33" t="n"/>
       <c r="J21" s="37" t="n">
         <v>0</v>
       </c>
@@ -3444,7 +3415,7 @@
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
         <is>
-          <t>UNITS</t>
+          <t>MANUFACTURING COST ANALYSIS STANDARD GRADE</t>
         </is>
       </c>
       <c r="B22" s="33" t="n">
@@ -3472,33 +3443,27 @@
     <row r="23">
       <c r="A23" s="8" t="inlineStr">
         <is>
-          <t>DELUXE   COST</t>
+          <t>MANUFACTURING COST ANALYSIS DELUXE   GRADE</t>
         </is>
       </c>
       <c r="B23" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="C23" s="33" t="n">
-        <v>631250</v>
-      </c>
+      <c r="C23" s="33" t="n"/>
       <c r="D23" s="33" t="n">
-        <v>2147380</v>
+        <v>1</v>
       </c>
       <c r="E23" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="F23" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="F23" s="33" t="n"/>
       <c r="G23" s="33" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" s="33" t="n"/>
       <c r="J23" s="37" t="n">
         <v>0</v>
       </c>
@@ -3506,7 +3471,7 @@
     <row r="24">
       <c r="A24" s="8" t="inlineStr">
         <is>
-          <t>UNITS</t>
+          <t>INTRA-CO. PURCHASES COST</t>
         </is>
       </c>
       <c r="B24" s="33" t="n">
@@ -3514,7 +3479,7 @@
       </c>
       <c r="C24" s="33" t="n"/>
       <c r="D24" s="33" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="E24" s="34" t="n">
         <v>0</v>
@@ -3534,7 +3499,7 @@
     <row r="25">
       <c r="A25" s="8" t="inlineStr">
         <is>
-          <t>STANDARD GRADE</t>
+          <t>INTRA-CO. PURCHASES UNITS</t>
         </is>
       </c>
       <c r="B25" s="33" t="n">
@@ -3562,15 +3527,15 @@
     <row r="26">
       <c r="A26" s="8" t="inlineStr">
         <is>
-          <t>DELUXE   GRADE</t>
+          <t>INTER-CO. PURCHASES COST</t>
         </is>
       </c>
       <c r="B26" s="33" t="n">
-        <v>0</v>
+        <v>1474600</v>
       </c>
       <c r="C26" s="33" t="n"/>
       <c r="D26" s="33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="34" t="n">
         <v>0</v>
@@ -3588,105 +3553,111 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="inlineStr">
-        <is>
-          <t>INTRA-CO. PURCHASES</t>
-        </is>
-      </c>
-      <c r="B27" s="33" t="n"/>
+      <c r="A27" s="8" t="inlineStr">
+        <is>
+          <t>INTER-CO. PURCHASES UNITS</t>
+        </is>
+      </c>
+      <c r="B27" s="33" t="n">
+        <v>65000</v>
+      </c>
       <c r="C27" s="33" t="n"/>
-      <c r="D27" s="33" t="n"/>
-      <c r="E27" s="34" t="n"/>
+      <c r="D27" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="F27" s="33" t="n"/>
-      <c r="G27" s="33" t="n"/>
-      <c r="H27" s="34" t="n"/>
+      <c r="G27" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="I27" s="33" t="n"/>
-      <c r="J27" s="37" t="n"/>
+      <c r="J27" s="37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>0COMPONENTS EXPEDITED COSTS</t>
         </is>
       </c>
       <c r="B28" s="33" t="n">
         <v>0</v>
       </c>
       <c r="C28" s="33" t="n"/>
-      <c r="D28" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="D28" s="33" t="n"/>
       <c r="E28" s="34" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="33" t="n"/>
-      <c r="G28" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="G28" s="33" t="n"/>
       <c r="H28" s="34" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="33" t="n"/>
-      <c r="J28" s="37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" s="37" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="8" t="inlineStr">
         <is>
-          <t>UNITS</t>
+          <t>0COMPONENTS EXPEDITED UNITS</t>
         </is>
       </c>
       <c r="B29" s="33" t="n">
         <v>0</v>
       </c>
       <c r="C29" s="33" t="n"/>
-      <c r="D29" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="D29" s="33" t="n"/>
       <c r="E29" s="34" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="33" t="n"/>
-      <c r="G29" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="G29" s="33" t="n"/>
       <c r="H29" s="34" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="33" t="n"/>
-      <c r="J29" s="37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" s="37" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="inlineStr">
-        <is>
-          <t>INTER-CO. PURCHASES</t>
-        </is>
-      </c>
-      <c r="B30" s="33" t="n"/>
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>0COMPONENTS EXPEDITED GRADE</t>
+        </is>
+      </c>
+      <c r="B30" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="C30" s="33" t="n"/>
       <c r="D30" s="33" t="n"/>
-      <c r="E30" s="34" t="n"/>
+      <c r="E30" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="F30" s="33" t="n"/>
       <c r="G30" s="33" t="n"/>
-      <c r="H30" s="34" t="n"/>
+      <c r="H30" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="I30" s="33" t="n"/>
       <c r="J30" s="37" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="8" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>ENDING INVENTORY STANDARD UNITS</t>
         </is>
       </c>
       <c r="B31" s="33" t="n">
-        <v>1474600</v>
+        <v>0</v>
       </c>
       <c r="C31" s="33" t="n"/>
       <c r="D31" s="33" t="n">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="E31" s="34" t="n">
         <v>0</v>
@@ -3706,11 +3677,11 @@
     <row r="32">
       <c r="A32" s="8" t="inlineStr">
         <is>
-          <t>UNITS</t>
+          <t>ENDING INVENTORY GRADE</t>
         </is>
       </c>
       <c r="B32" s="33" t="n">
-        <v>65000</v>
+        <v>1</v>
       </c>
       <c r="C32" s="33" t="n"/>
       <c r="D32" s="33" t="n">
@@ -3732,338 +3703,184 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="9" t="inlineStr">
-        <is>
-          <t>0COMPONENTS EXPEDITED</t>
-        </is>
-      </c>
-      <c r="B33" s="33" t="n"/>
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>ENDING INVENTORY DELUXE   UNITS</t>
+        </is>
+      </c>
+      <c r="B33" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="C33" s="33" t="n"/>
-      <c r="D33" s="33" t="n"/>
-      <c r="E33" s="34" t="n"/>
+      <c r="D33" s="33" t="n">
+        <v>25000</v>
+      </c>
+      <c r="E33" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="F33" s="33" t="n"/>
-      <c r="G33" s="33" t="n"/>
-      <c r="H33" s="34" t="n"/>
+      <c r="G33" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="34" t="n">
+        <v>0</v>
+      </c>
       <c r="I33" s="33" t="n"/>
-      <c r="J33" s="37" t="n"/>
+      <c r="J33" s="37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
         <is>
-          <t>COSTS</t>
-        </is>
-      </c>
-      <c r="B34" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="33" t="n"/>
-      <c r="D34" s="33" t="n"/>
-      <c r="E34" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="33" t="n"/>
-      <c r="G34" s="33" t="n"/>
-      <c r="H34" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="33" t="n"/>
-      <c r="J34" s="37" t="n"/>
+          <t>ENDING INVENTORY GRADE</t>
+        </is>
+      </c>
+      <c r="B34" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="54" t="n"/>
+      <c r="D34" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="54" t="n"/>
+      <c r="G34" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="54" t="n"/>
+      <c r="J34" s="57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="inlineStr">
-        <is>
-          <t>UNITS</t>
-        </is>
-      </c>
-      <c r="B35" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="33" t="n"/>
-      <c r="D35" s="33" t="n"/>
-      <c r="E35" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="33" t="n"/>
-      <c r="G35" s="33" t="n"/>
-      <c r="H35" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="33" t="n"/>
-      <c r="J35" s="37" t="n"/>
+      <c r="A35" s="9" t="inlineStr">
+        <is>
+          <t>0PLANTS BUILT AND BUILDING</t>
+        </is>
+      </c>
+      <c r="B35" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="54" t="n"/>
+      <c r="D35" s="54" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="54" t="n"/>
+      <c r="G35" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="54" t="n"/>
+      <c r="J35" s="57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="inlineStr">
-        <is>
-          <t>GRADE</t>
-        </is>
-      </c>
-      <c r="B36" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="33" t="n"/>
-      <c r="D36" s="33" t="n"/>
-      <c r="E36" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="33" t="n"/>
-      <c r="G36" s="33" t="n"/>
-      <c r="H36" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="33" t="n"/>
-      <c r="J36" s="37" t="n"/>
+      <c r="A36" s="63" t="inlineStr">
+        <is>
+          <t>PLANT NUMBERS</t>
+        </is>
+      </c>
+      <c r="B36" s="54" t="n"/>
+      <c r="C36" s="54" t="n"/>
+      <c r="D36" s="54" t="inlineStr">
+        <is>
+          <t>1   2   3</t>
+        </is>
+      </c>
+      <c r="E36" s="55" t="n"/>
+      <c r="F36" s="54" t="n"/>
+      <c r="G36" s="54" t="n"/>
+      <c r="H36" s="55" t="n"/>
+      <c r="I36" s="54" t="n"/>
+      <c r="J36" s="57" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="9" t="inlineStr">
-        <is>
-          <t>ENDING INVENTORY</t>
-        </is>
-      </c>
-      <c r="B37" s="33" t="n"/>
-      <c r="C37" s="33" t="n"/>
-      <c r="D37" s="33" t="n"/>
-      <c r="E37" s="34" t="n"/>
-      <c r="F37" s="33" t="n"/>
-      <c r="G37" s="33" t="n"/>
-      <c r="H37" s="34" t="n"/>
-      <c r="I37" s="33" t="n"/>
-      <c r="J37" s="37" t="n"/>
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>0NO. REG. SALES OFFICES</t>
+        </is>
+      </c>
+      <c r="B37" s="54" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" s="54" t="n"/>
+      <c r="D37" s="54" t="n"/>
+      <c r="E37" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="54" t="n"/>
+      <c r="G37" s="54" t="n"/>
+      <c r="H37" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="54" t="n"/>
+      <c r="J37" s="57" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="8" t="inlineStr">
         <is>
-          <t>STANDARD UNITS</t>
-        </is>
-      </c>
-      <c r="B38" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="33" t="n"/>
-      <c r="D38" s="33" t="n">
-        <v>40000</v>
-      </c>
-      <c r="E38" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="33" t="n"/>
-      <c r="G38" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="33" t="n"/>
-      <c r="J38" s="37" t="n">
-        <v>0</v>
+          <t>MAX. PRODUCIBLE GRADE</t>
+        </is>
+      </c>
+      <c r="B38" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="54" t="n"/>
+      <c r="D38" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="54" t="n"/>
+      <c r="G38" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="54" t="n"/>
+      <c r="J38" s="57" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="inlineStr">
-        <is>
-          <t>GRADE</t>
-        </is>
-      </c>
-      <c r="B39" s="33" t="n">
+      <c r="A39" s="40" t="inlineStr">
+        <is>
+          <t>MAX. OWNED GRADE</t>
+        </is>
+      </c>
+      <c r="B39" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="36" t="n"/>
+      <c r="D39" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="33" t="n"/>
-      <c r="D39" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="33" t="n"/>
-      <c r="G39" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="33" t="n"/>
-      <c r="J39" s="37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="8" t="inlineStr">
-        <is>
-          <t>DELUXE   UNITS</t>
-        </is>
-      </c>
-      <c r="B40" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="33" t="n"/>
-      <c r="D40" s="33" t="n">
-        <v>25000</v>
-      </c>
-      <c r="E40" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="33" t="n"/>
-      <c r="G40" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="33" t="n"/>
-      <c r="J40" s="37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="8" t="inlineStr">
-        <is>
-          <t>GRADE</t>
-        </is>
-      </c>
-      <c r="B41" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" s="54" t="n"/>
-      <c r="D41" s="54" t="n">
+      <c r="E39" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="36" t="n"/>
+      <c r="G39" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="E41" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="54" t="n"/>
-      <c r="G41" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="54" t="n"/>
-      <c r="J41" s="57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="9" t="inlineStr">
-        <is>
-          <t>0PLANTS BUILT AND BUILDING</t>
-        </is>
-      </c>
-      <c r="B42" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" s="54" t="n"/>
-      <c r="D42" s="54" t="n">
-        <v>3</v>
-      </c>
-      <c r="E42" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="54" t="n"/>
-      <c r="G42" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="54" t="n"/>
-      <c r="J42" s="57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="8" t="inlineStr">
-        <is>
-          <t>PLANT NUMBERS</t>
-        </is>
-      </c>
-      <c r="B43" s="54" t="n"/>
-      <c r="C43" s="54" t="n"/>
-      <c r="D43" s="54" t="inlineStr">
-        <is>
-          <t>1   2   3</t>
-        </is>
-      </c>
-      <c r="E43" s="55" t="n"/>
-      <c r="F43" s="54" t="n"/>
-      <c r="G43" s="54" t="n"/>
-      <c r="H43" s="55" t="n"/>
-      <c r="I43" s="54" t="n"/>
-      <c r="J43" s="57" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="8" t="inlineStr">
-        <is>
-          <t>0NO. REG. SALES OFFICES</t>
-        </is>
-      </c>
-      <c r="B44" s="54" t="n">
-        <v>4</v>
-      </c>
-      <c r="C44" s="54" t="n"/>
-      <c r="D44" s="54" t="n"/>
-      <c r="E44" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="54" t="n"/>
-      <c r="G44" s="54" t="n"/>
-      <c r="H44" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="54" t="n"/>
-      <c r="J44" s="57" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="8" t="inlineStr">
-        <is>
-          <t>MAX. PRODUCIBLE GRADE</t>
-        </is>
-      </c>
-      <c r="B45" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" s="54" t="n"/>
-      <c r="D45" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="54" t="n"/>
-      <c r="G45" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="54" t="n"/>
-      <c r="J45" s="57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="40" t="inlineStr">
-        <is>
-          <t>MAX. OWNED GRADE</t>
-        </is>
-      </c>
-      <c r="B46" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" s="36" t="n"/>
-      <c r="D46" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="36" t="n"/>
-      <c r="G46" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="36" t="n"/>
-      <c r="J46" s="38" t="n">
+      <c r="H39" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="36" t="n"/>
+      <c r="J39" s="38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4112,16 +3929,16 @@
           <t>FOREIGN CURRENCY STATEMENT</t>
         </is>
       </c>
-      <c r="C2" s="63" t="n"/>
-      <c r="D2" s="63" t="n"/>
-      <c r="E2" s="63" t="n"/>
-      <c r="F2" s="63" t="n"/>
-      <c r="G2" s="63" t="n"/>
-      <c r="H2" s="63" t="n"/>
-      <c r="I2" s="63" t="n"/>
+      <c r="C2" s="64" t="n"/>
+      <c r="D2" s="64" t="n"/>
+      <c r="E2" s="64" t="n"/>
+      <c r="F2" s="64" t="n"/>
+      <c r="G2" s="64" t="n"/>
+      <c r="H2" s="64" t="n"/>
+      <c r="I2" s="64" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="64" t="inlineStr">
+      <c r="A3" s="65" t="inlineStr">
         <is>
           <t>0SUMMARY OF CURRENCY HOLDINGS</t>
         </is>
@@ -4131,28 +3948,28 @@
           <t>U.</t>
         </is>
       </c>
-      <c r="C3" s="65" t="n"/>
+      <c r="C3" s="66" t="n"/>
       <c r="D3" s="58" t="inlineStr">
         <is>
           <t>EC/EU</t>
         </is>
       </c>
-      <c r="E3" s="65" t="n"/>
+      <c r="E3" s="66" t="n"/>
       <c r="F3" s="58" t="inlineStr">
         <is>
           <t>BRA</t>
         </is>
       </c>
-      <c r="G3" s="65" t="n"/>
+      <c r="G3" s="66" t="n"/>
       <c r="H3" s="58" t="inlineStr">
         <is>
           <t>LIECHTENST.</t>
         </is>
       </c>
-      <c r="I3" s="65" t="n"/>
+      <c r="I3" s="66" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="66" t="n"/>
+      <c r="A4" s="67" t="n"/>
       <c r="B4" s="58" t="inlineStr">
         <is>
           <t>UNITS</t>
@@ -8502,25 +8319,25 @@
           <t>U.S.</t>
         </is>
       </c>
-      <c r="C3" s="67" t="n"/>
-      <c r="D3" s="67" t="n"/>
-      <c r="E3" s="65" t="n"/>
+      <c r="C3" s="68" t="n"/>
+      <c r="D3" s="68" t="n"/>
+      <c r="E3" s="66" t="n"/>
       <c r="F3" s="58" t="inlineStr">
         <is>
           <t>EC/EU</t>
         </is>
       </c>
-      <c r="G3" s="67" t="n"/>
-      <c r="H3" s="67" t="n"/>
-      <c r="I3" s="65" t="n"/>
+      <c r="G3" s="68" t="n"/>
+      <c r="H3" s="68" t="n"/>
+      <c r="I3" s="66" t="n"/>
       <c r="J3" s="58" t="inlineStr">
         <is>
           <t>BRAZIL</t>
         </is>
       </c>
-      <c r="K3" s="67" t="n"/>
-      <c r="L3" s="67" t="n"/>
-      <c r="M3" s="65" t="n"/>
+      <c r="K3" s="68" t="n"/>
+      <c r="L3" s="68" t="n"/>
+      <c r="M3" s="66" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="13" t="n"/>
@@ -8529,37 +8346,37 @@
           <t>CHIP</t>
         </is>
       </c>
-      <c r="C4" s="65" t="n"/>
+      <c r="C4" s="66" t="n"/>
       <c r="D4" s="58" t="inlineStr">
         <is>
           <t>PC</t>
         </is>
       </c>
-      <c r="E4" s="65" t="n"/>
+      <c r="E4" s="66" t="n"/>
       <c r="F4" s="58" t="inlineStr">
         <is>
           <t>CHIP</t>
         </is>
       </c>
-      <c r="G4" s="65" t="n"/>
+      <c r="G4" s="66" t="n"/>
       <c r="H4" s="58" t="inlineStr">
         <is>
           <t>PC</t>
         </is>
       </c>
-      <c r="I4" s="65" t="n"/>
+      <c r="I4" s="66" t="n"/>
       <c r="J4" s="58" t="inlineStr">
         <is>
           <t>CHIP</t>
         </is>
       </c>
-      <c r="K4" s="65" t="n"/>
+      <c r="K4" s="66" t="n"/>
       <c r="L4" s="58" t="inlineStr">
         <is>
           <t>PC</t>
         </is>
       </c>
-      <c r="M4" s="65" t="n"/>
+      <c r="M4" s="66" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="13" t="n"/>
